--- a/ART_PI_引脚分布.xlsx
+++ b/ART_PI_引脚分布.xlsx
@@ -973,7 +973,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1043,6 +1043,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1592,10 +1600,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1604,34 +1612,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1643,98 +1648,101 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1779,6 +1787,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2103,8 +2112,8 @@
   <sheetPr/>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A20"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -3061,7 +3070,7 @@
       <c r="H40" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="I40" s="32" t="s">
+      <c r="I40" s="33" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3088,7 +3097,7 @@
       <c r="H41" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="I41" s="32" t="s">
+      <c r="I41" s="33" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3111,7 +3120,7 @@
       <c r="H42" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="I42" s="32" t="s">
+      <c r="I42" s="33" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3127,14 +3136,14 @@
       <c r="E43" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="30" t="s">
         <v>267</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="I43" s="32" t="s">
+      <c r="I43" s="33" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3157,7 +3166,7 @@
       <c r="H44" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="I44" s="32" t="s">
+      <c r="I44" s="33" t="s">
         <v>274</v>
       </c>
     </row>
@@ -3182,7 +3191,7 @@
       <c r="H45" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="I45" s="32" t="s">
+      <c r="I45" s="33" t="s">
         <v>281</v>
       </c>
     </row>
@@ -3205,7 +3214,7 @@
       <c r="H46" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="I46" s="32" t="s">
+      <c r="I46" s="33" t="s">
         <v>287</v>
       </c>
     </row>
@@ -3249,50 +3258,50 @@
       <c r="C49" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="E49" s="30" t="s">
+      <c r="E49" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="F49" s="31" t="s">
+      <c r="F49" s="32" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="50" spans="5:6">
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="F50" s="31" t="s">
+      <c r="F50" s="32" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="51" spans="5:6">
-      <c r="E51" s="30" t="s">
+      <c r="E51" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="F51" s="31" t="s">
+      <c r="F51" s="32" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="52" spans="5:6">
-      <c r="E52" s="30" t="s">
+      <c r="E52" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="F52" s="31" t="s">
+      <c r="F52" s="32" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="53" spans="5:6">
-      <c r="E53" s="30" t="s">
+      <c r="E53" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="F53" s="31" t="s">
+      <c r="F53" s="32" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="54" spans="5:6">
-      <c r="E54" s="30" t="s">
+      <c r="E54" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="F54" s="31" t="s">
+      <c r="F54" s="32" t="s">
         <v>240</v>
       </c>
     </row>

--- a/ART_PI_引脚分布.xlsx
+++ b/ART_PI_引脚分布.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView windowWidth="23040" windowHeight="9300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ART_PI" sheetId="1" r:id="rId1"/>
@@ -2112,8 +2112,8 @@
   <sheetPr/>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -3336,8 +3336,8 @@
   <sheetPr/>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
